--- a/DokumenLaporan/Test Plan.xlsx
+++ b/DokumenLaporan/Test Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SIAKAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SIAKAD\DokumenLaporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4C4E9F-0841-4A75-B42A-A43807586EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285CF5CE-4412-46A6-AABE-9E54EC739370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="383">
   <si>
     <t>Project Name:</t>
   </si>
@@ -331,9 +331,6 @@
     <t>User TU menambah mata kuliah pada kurikulum program studi tertentu</t>
   </si>
   <si>
-    <t>Kurikulum baru dibuat</t>
-  </si>
-  <si>
     <t>Kurikulum-2B</t>
   </si>
   <si>
@@ -343,9 +340,6 @@
     <t>User TU mengubah data kurikulum program studi</t>
   </si>
   <si>
-    <t>Data baru di-update</t>
-  </si>
-  <si>
     <t>Kurikulum-2C</t>
   </si>
   <si>
@@ -353,9 +347,6 @@
   </si>
   <si>
     <t>User TU menghapus mata kuliah/kurikulum periode tertentu</t>
-  </si>
-  <si>
-    <t>Data yang dihapus hilang</t>
   </si>
   <si>
     <t xml:space="preserve">Mata kuliah/kurikulum tersebut tidak dapat dipilih lagi oleh civitas </t>
@@ -1223,6 +1214,40 @@
   </si>
   <si>
     <t>3. Mendapat keterangan "Belum dalam masa pengisian"</t>
+  </si>
+  <si>
+    <t>3. Klik tombol "Tambah"</t>
+  </si>
+  <si>
+    <t>4. Isi data mata kuliah</t>
+  </si>
+  <si>
+    <t>Penambahan mata kuliah pada kurikulum</t>
+  </si>
+  <si>
+    <t>3. Klik tombol edit pada baris mata kuliah yang mau diubah</t>
+  </si>
+  <si>
+    <t>Data mata kuliah diperbarui</t>
+  </si>
+  <si>
+    <t>Mata kuliah yang dihapus hilang</t>
+  </si>
+  <si>
+    <t>Kode mata kuliah: IS000000
+Nama mata kuliah: Mata Kuliah A
+SKS : 2
+Semester: 1
+Kurikulum: 2018
+Kode kelas: AAAA</t>
+  </si>
+  <si>
+    <t>Kode mata kuliah: IS000000
+Nama mata kuliah: Mata Kuliah A
+SKS : 2
+Semester: 1
+Kurikulum: 2018
+Kode kelas: AAAB</t>
   </si>
 </sst>
 </file>
@@ -1766,9 +1791,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1847,11 +1869,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1871,12 +1897,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1892,6 +1912,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1917,6 +1940,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1925,12 +1954,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3040,8 +3063,8 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="75" t="s">
-        <v>254</v>
+      <c r="C2" s="74" t="s">
+        <v>251</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>5</v>
@@ -3120,7 +3143,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>12</v>
@@ -3189,231 +3212,240 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="103" t="s">
-        <v>334</v>
-      </c>
-      <c r="B11" s="103" t="s">
-        <v>335</v>
-      </c>
-      <c r="C11" s="103" t="s">
-        <v>336</v>
+      <c r="A11" s="100" t="s">
+        <v>331</v>
+      </c>
+      <c r="B11" s="100" t="s">
+        <v>332</v>
+      </c>
+      <c r="C11" s="100" t="s">
+        <v>333</v>
       </c>
       <c r="D11" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="103" t="s">
+      <c r="E11" s="100" t="s">
+        <v>343</v>
+      </c>
+      <c r="F11" s="100" t="s">
+        <v>339</v>
+      </c>
+      <c r="G11" s="100" t="s">
+        <v>339</v>
+      </c>
+      <c r="H11" s="100" t="s">
+        <v>339</v>
+      </c>
+      <c r="I11" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J11" s="51"/>
+    </row>
+    <row r="12" spans="1:10" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="92"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="53" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="53"/>
+    </row>
+    <row r="13" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="92"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="53" t="s">
+        <v>335</v>
+      </c>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="53"/>
+    </row>
+    <row r="14" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="92"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="53" t="s">
+        <v>336</v>
+      </c>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="53"/>
+    </row>
+    <row r="15" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="92"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="53"/>
+    </row>
+    <row r="16" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="92"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="53" t="s">
+        <v>338</v>
+      </c>
+      <c r="E16" s="113"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="53"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="94" t="s">
+        <v>340</v>
+      </c>
+      <c r="B17" s="94" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" s="94" t="s">
+        <v>342</v>
+      </c>
+      <c r="D17" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="94" t="s">
+        <v>345</v>
+      </c>
+      <c r="F17" s="112" t="s">
         <v>346</v>
       </c>
-      <c r="F11" s="103" t="s">
-        <v>342</v>
-      </c>
-      <c r="G11" s="103" t="s">
-        <v>342</v>
-      </c>
-      <c r="H11" s="103" t="s">
-        <v>342</v>
-      </c>
-      <c r="I11" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="J11" s="51"/>
-    </row>
-    <row r="12" spans="1:10" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="99"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="53" t="s">
-        <v>337</v>
-      </c>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="53"/>
-    </row>
-    <row r="13" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="99"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="53" t="s">
-        <v>338</v>
-      </c>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="53"/>
-    </row>
-    <row r="14" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="99"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="53" t="s">
-        <v>339</v>
-      </c>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="53"/>
-    </row>
-    <row r="15" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="99"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="53" t="s">
-        <v>340</v>
-      </c>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="53"/>
-    </row>
-    <row r="16" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="99"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="E16" s="113"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="53"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="93" t="s">
-        <v>343</v>
-      </c>
-      <c r="B17" s="93" t="s">
-        <v>344</v>
-      </c>
-      <c r="C17" s="93" t="s">
-        <v>345</v>
-      </c>
-      <c r="D17" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="93" t="s">
-        <v>348</v>
-      </c>
-      <c r="F17" s="112" t="s">
-        <v>349</v>
-      </c>
       <c r="G17" s="112" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H17" s="112" t="s">
-        <v>349</v>
-      </c>
-      <c r="I17" s="93" t="s">
-        <v>235</v>
-      </c>
-      <c r="J17" s="81"/>
+        <v>346</v>
+      </c>
+      <c r="I17" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J17" s="80"/>
     </row>
     <row r="18" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="93"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="86" t="s">
-        <v>337</v>
-      </c>
-      <c r="E18" s="93"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="85" t="s">
+        <v>334</v>
+      </c>
+      <c r="E18" s="94"/>
       <c r="F18" s="112"/>
       <c r="G18" s="112"/>
       <c r="H18" s="112"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="81"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="80"/>
     </row>
     <row r="19" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="93"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="86" t="s">
-        <v>338</v>
-      </c>
-      <c r="E19" s="93"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="85" t="s">
+        <v>335</v>
+      </c>
+      <c r="E19" s="94"/>
       <c r="F19" s="112"/>
       <c r="G19" s="112"/>
       <c r="H19" s="112"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="81"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="80"/>
     </row>
     <row r="20" spans="1:10" ht="36.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="93"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="86" t="s">
-        <v>339</v>
-      </c>
-      <c r="E20" s="93"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="85" t="s">
+        <v>336</v>
+      </c>
+      <c r="E20" s="94"/>
       <c r="F20" s="112"/>
       <c r="G20" s="112"/>
       <c r="H20" s="112"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="81"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="80"/>
     </row>
     <row r="21" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="93"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="87" t="s">
-        <v>340</v>
-      </c>
-      <c r="E21" s="93"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="86" t="s">
+        <v>337</v>
+      </c>
+      <c r="E21" s="94"/>
       <c r="F21" s="112"/>
       <c r="G21" s="112"/>
       <c r="H21" s="112"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="82"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="81"/>
     </row>
     <row r="22" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="93"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="88" t="s">
-        <v>347</v>
-      </c>
-      <c r="E22" s="93"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="87" t="s">
+        <v>344</v>
+      </c>
+      <c r="E22" s="94"/>
       <c r="F22" s="112"/>
       <c r="G22" s="112"/>
       <c r="H22" s="112"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="83"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="82"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="80"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G17:G22"/>
+    <mergeCell ref="H17:H22"/>
+    <mergeCell ref="I17:I22"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="E17:E22"/>
+    <mergeCell ref="F17:F22"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="A11:A16"/>
@@ -3423,15 +3455,6 @@
     <mergeCell ref="G11:G16"/>
     <mergeCell ref="H11:H16"/>
     <mergeCell ref="I11:I16"/>
-    <mergeCell ref="G17:G22"/>
-    <mergeCell ref="H17:H22"/>
-    <mergeCell ref="I17:I22"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="E17:E22"/>
-    <mergeCell ref="F17:F22"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="B8" xr:uid="{9EA43045-E29A-4A67-846A-2A9CD3E27679}">
@@ -3492,7 +3515,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -3638,26 +3661,26 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="103" t="s">
-        <v>171</v>
-      </c>
-      <c r="B11" s="103" t="s">
-        <v>172</v>
+      <c r="A11" s="100" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="100" t="s">
+        <v>169</v>
       </c>
       <c r="C11" s="109" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D11" s="52" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="109" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F11" s="109" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G11" s="109" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H11" s="53"/>
       <c r="I11" s="56"/>
@@ -3668,7 +3691,7 @@
       <c r="B12" s="90"/>
       <c r="C12" s="90"/>
       <c r="D12" s="52" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E12" s="90"/>
       <c r="F12" s="90"/>
@@ -3682,7 +3705,7 @@
       <c r="B13" s="90"/>
       <c r="C13" s="90"/>
       <c r="D13" s="52" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E13" s="90"/>
       <c r="F13" s="90"/>
@@ -3696,7 +3719,7 @@
       <c r="B14" s="90"/>
       <c r="C14" s="90"/>
       <c r="D14" s="52" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E14" s="90"/>
       <c r="F14" s="90"/>
@@ -3710,7 +3733,7 @@
       <c r="B15" s="90"/>
       <c r="C15" s="90"/>
       <c r="D15" s="52" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E15" s="90"/>
       <c r="F15" s="90"/>
@@ -3724,7 +3747,7 @@
       <c r="B16" s="90"/>
       <c r="C16" s="90"/>
       <c r="D16" s="52" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E16" s="90"/>
       <c r="F16" s="90"/>
@@ -3738,7 +3761,7 @@
       <c r="B17" s="108"/>
       <c r="C17" s="108"/>
       <c r="D17" s="52" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E17" s="108"/>
       <c r="F17" s="108"/>
@@ -3748,26 +3771,26 @@
       <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="103" t="s">
-        <v>183</v>
-      </c>
-      <c r="B18" s="103" t="s">
-        <v>184</v>
+      <c r="A18" s="100" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" s="100" t="s">
+        <v>181</v>
       </c>
       <c r="C18" s="109" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D18" s="52" t="s">
         <v>76</v>
       </c>
       <c r="E18" s="109" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F18" s="109" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G18" s="109" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H18" s="53"/>
       <c r="I18" s="56"/>
@@ -3778,7 +3801,7 @@
       <c r="B19" s="90"/>
       <c r="C19" s="90"/>
       <c r="D19" s="52" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E19" s="90"/>
       <c r="F19" s="90"/>
@@ -3792,7 +3815,7 @@
       <c r="B20" s="90"/>
       <c r="C20" s="90"/>
       <c r="D20" s="52" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="90"/>
@@ -3806,7 +3829,7 @@
       <c r="B21" s="90"/>
       <c r="C21" s="90"/>
       <c r="D21" s="52" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E21" s="90"/>
       <c r="F21" s="90"/>
@@ -3820,350 +3843,358 @@
       <c r="B22" s="90"/>
       <c r="C22" s="90"/>
       <c r="D22" s="52" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
       <c r="G22" s="90"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
     </row>
     <row r="23" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A23" s="90"/>
       <c r="B23" s="90"/>
       <c r="C23" s="90"/>
       <c r="D23" s="52" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E23" s="90"/>
       <c r="F23" s="90"/>
       <c r="G23" s="90"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
     </row>
     <row r="24" spans="1:10" ht="50" x14ac:dyDescent="0.25">
       <c r="A24" s="108"/>
       <c r="B24" s="108"/>
       <c r="C24" s="108"/>
       <c r="D24" s="52" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E24" s="108"/>
       <c r="F24" s="108"/>
       <c r="G24" s="108"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
     </row>
     <row r="25" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="103" t="s">
+      <c r="A25" s="100" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="100" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" s="100" t="s">
+        <v>239</v>
+      </c>
+      <c r="H25" s="100" t="s">
+        <v>239</v>
+      </c>
+      <c r="I25" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J25" s="60"/>
+    </row>
+    <row r="26" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="92"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="62"/>
+    </row>
+    <row r="27" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+      <c r="A27" s="92"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="62"/>
+    </row>
+    <row r="28" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+      <c r="A28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="62"/>
+    </row>
+    <row r="29" spans="1:10" ht="50" x14ac:dyDescent="0.25">
+      <c r="A29" s="101"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="62"/>
+    </row>
+    <row r="30" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="100" t="s">
         <v>188</v>
       </c>
-      <c r="B25" s="103" t="s">
+      <c r="B30" s="100" t="s">
         <v>189</v>
       </c>
-      <c r="C25" s="103" t="s">
+      <c r="C30" s="100" t="s">
         <v>190</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="D30" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="103" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="103" t="s">
-        <v>241</v>
-      </c>
-      <c r="G25" s="103" t="s">
-        <v>242</v>
-      </c>
-      <c r="H25" s="103" t="s">
-        <v>242</v>
-      </c>
-      <c r="I25" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="J25" s="61"/>
-    </row>
-    <row r="26" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="99"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="63"/>
-    </row>
-    <row r="27" spans="1:10" ht="25" x14ac:dyDescent="0.25">
-      <c r="A27" s="99"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="63" t="s">
-        <v>178</v>
-      </c>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="63"/>
-    </row>
-    <row r="28" spans="1:10" ht="25" x14ac:dyDescent="0.25">
-      <c r="A28" s="99"/>
-      <c r="B28" s="99"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="63" t="s">
-        <v>239</v>
-      </c>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="63"/>
-    </row>
-    <row r="29" spans="1:10" ht="50" x14ac:dyDescent="0.25">
-      <c r="A29" s="104"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="63" t="s">
-        <v>240</v>
-      </c>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="63"/>
-    </row>
-    <row r="30" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="103" t="s">
+      <c r="E30" s="100" t="s">
+        <v>352</v>
+      </c>
+      <c r="F30" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="B30" s="103" t="s">
+      <c r="G30" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="C30" s="103" t="s">
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+    </row>
+    <row r="31" spans="1:10" s="65" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="92"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="62" t="s">
+        <v>347</v>
+      </c>
+      <c r="E31" s="92"/>
+      <c r="F31" s="100" t="s">
+        <v>349</v>
+      </c>
+      <c r="G31" s="100" t="s">
+        <v>350</v>
+      </c>
+      <c r="H31" s="100" t="s">
+        <v>351</v>
+      </c>
+      <c r="I31" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J31" s="62"/>
+    </row>
+    <row r="32" spans="1:10" s="65" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="92"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="62" t="s">
+        <v>360</v>
+      </c>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="62"/>
+    </row>
+    <row r="33" spans="1:10" s="65" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="101"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="62" t="s">
+        <v>348</v>
+      </c>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="62"/>
+    </row>
+    <row r="34" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="100" t="s">
         <v>193</v>
       </c>
-      <c r="D30" s="61" t="s">
+      <c r="B34" s="100" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="100" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="103" t="s">
+      <c r="E34" s="100" t="s">
+        <v>354</v>
+      </c>
+      <c r="F34" s="100" t="s">
         <v>355</v>
       </c>
-      <c r="F30" s="63" t="s">
-        <v>194</v>
-      </c>
-      <c r="G30" s="63" t="s">
-        <v>195</v>
-      </c>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-    </row>
-    <row r="31" spans="1:10" s="66" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="99"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="63" t="s">
-        <v>350</v>
-      </c>
-      <c r="E31" s="99"/>
-      <c r="F31" s="103" t="s">
-        <v>352</v>
-      </c>
-      <c r="G31" s="103" t="s">
+      <c r="G34" s="100" t="s">
+        <v>356</v>
+      </c>
+      <c r="H34" s="100" t="s">
+        <v>356</v>
+      </c>
+      <c r="I34" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J34" s="60"/>
+    </row>
+    <row r="35" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="92"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="62" t="s">
+        <v>347</v>
+      </c>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="60"/>
+    </row>
+    <row r="36" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="92"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="62" t="s">
+        <v>360</v>
+      </c>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="60"/>
+    </row>
+    <row r="37" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="101"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="62" t="s">
         <v>353</v>
       </c>
-      <c r="H31" s="103" t="s">
-        <v>354</v>
-      </c>
-      <c r="I31" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="J31" s="63"/>
-    </row>
-    <row r="32" spans="1:10" s="66" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="99"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="63" t="s">
-        <v>363</v>
-      </c>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="63"/>
-    </row>
-    <row r="33" spans="1:10" s="66" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="104"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="63" t="s">
-        <v>351</v>
-      </c>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="63"/>
-    </row>
-    <row r="34" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="103" t="s">
-        <v>196</v>
-      </c>
-      <c r="B34" s="103" t="s">
-        <v>197</v>
-      </c>
-      <c r="C34" s="103" t="s">
-        <v>198</v>
-      </c>
-      <c r="D34" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="103" t="s">
-        <v>357</v>
-      </c>
-      <c r="F34" s="103" t="s">
-        <v>358</v>
-      </c>
-      <c r="G34" s="103" t="s">
-        <v>359</v>
-      </c>
-      <c r="H34" s="103" t="s">
-        <v>359</v>
-      </c>
-      <c r="I34" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="J34" s="61"/>
-    </row>
-    <row r="35" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="99"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="63" t="s">
-        <v>350</v>
-      </c>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="61"/>
-    </row>
-    <row r="36" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="99"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="63" t="s">
-        <v>363</v>
-      </c>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="61"/>
-    </row>
-    <row r="37" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="104"/>
-      <c r="B37" s="104"/>
-      <c r="C37" s="104"/>
-      <c r="D37" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="104"/>
-      <c r="J37" s="61"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="60"/>
     </row>
     <row r="38" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="56"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
     </row>
     <row r="39" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="56"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
     </row>
     <row r="40" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="56"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
     </row>
     <row r="41" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="56"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
     </row>
     <row r="42" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="56"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="61"/>
+      <c r="D43" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="G25:G29"/>
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="I25:I29"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="E30:E33"/>
     <mergeCell ref="F18:F24"/>
     <mergeCell ref="G18:G24"/>
     <mergeCell ref="A1:A2"/>
@@ -4178,22 +4209,14 @@
     <mergeCell ref="B18:B24"/>
     <mergeCell ref="C18:C24"/>
     <mergeCell ref="E18:E24"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="I25:I29"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="F25:F29"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="B8" xr:uid="{00000000-0002-0000-0800-000000000000}">
@@ -4254,7 +4277,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -4400,118 +4423,118 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="103" t="s">
-        <v>200</v>
-      </c>
-      <c r="B11" s="103" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="103" t="s">
-        <v>202</v>
+      <c r="A11" s="100" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="100" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="100" t="s">
+        <v>199</v>
       </c>
       <c r="D11" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="103" t="s">
-        <v>360</v>
-      </c>
-      <c r="F11" s="103" t="s">
-        <v>361</v>
-      </c>
-      <c r="G11" s="103" t="s">
+      <c r="E11" s="100" t="s">
+        <v>357</v>
+      </c>
+      <c r="F11" s="100" t="s">
+        <v>358</v>
+      </c>
+      <c r="G11" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" s="100" t="s">
+        <v>240</v>
+      </c>
+      <c r="I11" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J11" s="53"/>
+    </row>
+    <row r="12" spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="92"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="53"/>
+    </row>
+    <row r="13" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="92"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="53"/>
+    </row>
+    <row r="14" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="92"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="H11" s="103" t="s">
-        <v>243</v>
-      </c>
-      <c r="I11" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="J11" s="53"/>
-    </row>
-    <row r="12" spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="99"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="52" t="s">
-        <v>203</v>
-      </c>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="53"/>
-    </row>
-    <row r="13" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="99"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="53"/>
-    </row>
-    <row r="14" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="99"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
       <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="104"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
+      <c r="A15" s="101"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
       <c r="D15" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
+        <v>177</v>
+      </c>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
       <c r="J15" s="53"/>
     </row>
     <row r="16" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="103" t="s">
-        <v>204</v>
-      </c>
-      <c r="B16" s="103" t="s">
-        <v>184</v>
+      <c r="A16" s="100" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="100" t="s">
+        <v>181</v>
       </c>
       <c r="C16" s="109" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>76</v>
       </c>
       <c r="E16" s="109" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F16" s="109" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G16" s="109" t="s">
         <v>52</v>
       </c>
       <c r="H16" s="109" t="s">
-        <v>362</v>
-      </c>
-      <c r="I16" s="103" t="s">
-        <v>235</v>
+        <v>359</v>
+      </c>
+      <c r="I16" s="100" t="s">
+        <v>232</v>
       </c>
       <c r="J16" s="53"/>
     </row>
@@ -4520,13 +4543,13 @@
       <c r="B17" s="90"/>
       <c r="C17" s="90"/>
       <c r="D17" s="52" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E17" s="90"/>
       <c r="F17" s="90"/>
       <c r="G17" s="90"/>
       <c r="H17" s="90"/>
-      <c r="I17" s="99"/>
+      <c r="I17" s="92"/>
       <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4534,13 +4557,13 @@
       <c r="B18" s="90"/>
       <c r="C18" s="90"/>
       <c r="D18" s="52" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E18" s="90"/>
       <c r="F18" s="90"/>
       <c r="G18" s="90"/>
       <c r="H18" s="90"/>
-      <c r="I18" s="99"/>
+      <c r="I18" s="92"/>
       <c r="J18" s="53"/>
     </row>
     <row r="19" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
@@ -4548,13 +4571,13 @@
       <c r="B19" s="90"/>
       <c r="C19" s="90"/>
       <c r="D19" s="52" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E19" s="90"/>
       <c r="F19" s="90"/>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
-      <c r="I19" s="99"/>
+      <c r="I19" s="92"/>
       <c r="J19" s="53"/>
     </row>
     <row r="20" spans="1:10" ht="25" x14ac:dyDescent="0.25">
@@ -4562,14 +4585,14 @@
       <c r="B20" s="90"/>
       <c r="C20" s="90"/>
       <c r="D20" s="52" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="90"/>
       <c r="G20" s="90"/>
       <c r="H20" s="90"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="61"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="60"/>
     </row>
     <row r="21" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="90"/>
@@ -4580,388 +4603,392 @@
       <c r="F21" s="90"/>
       <c r="G21" s="90"/>
       <c r="H21" s="90"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="61"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="60"/>
     </row>
     <row r="22" spans="1:10" ht="50" x14ac:dyDescent="0.25">
       <c r="A22" s="108"/>
       <c r="B22" s="108"/>
       <c r="C22" s="108"/>
       <c r="D22" s="52" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E22" s="108"/>
       <c r="F22" s="108"/>
       <c r="G22" s="108"/>
       <c r="H22" s="108"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="61"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="60"/>
     </row>
     <row r="23" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="103" t="s">
-        <v>205</v>
-      </c>
-      <c r="B23" s="103" t="s">
-        <v>189</v>
-      </c>
-      <c r="C23" s="103" t="s">
-        <v>190</v>
-      </c>
-      <c r="D23" s="63" t="s">
+      <c r="A23" s="100" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="103" t="s">
+      <c r="E23" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="103" t="s">
-        <v>241</v>
-      </c>
-      <c r="G23" s="103" t="s">
-        <v>241</v>
-      </c>
-      <c r="H23" s="103" t="s">
+      <c r="F23" s="100" t="s">
+        <v>238</v>
+      </c>
+      <c r="G23" s="100" t="s">
+        <v>238</v>
+      </c>
+      <c r="H23" s="100" t="s">
+        <v>239</v>
+      </c>
+      <c r="I23" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J23" s="60"/>
+    </row>
+    <row r="24" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="92"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="I23" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="J23" s="61"/>
-    </row>
-    <row r="24" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="99"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="63" t="s">
-        <v>245</v>
-      </c>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="63"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="62"/>
     </row>
     <row r="25" spans="1:10" ht="25" x14ac:dyDescent="0.25">
-      <c r="A25" s="99"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="63" t="s">
-        <v>178</v>
-      </c>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="63"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="62"/>
     </row>
     <row r="26" spans="1:10" ht="25" x14ac:dyDescent="0.25">
-      <c r="A26" s="99"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="63" t="s">
-        <v>239</v>
-      </c>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="63"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="62"/>
     </row>
     <row r="27" spans="1:10" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="104"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="63" t="s">
-        <v>246</v>
-      </c>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="61"/>
+      <c r="A27" s="101"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="60"/>
     </row>
     <row r="28" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="114" t="s">
-        <v>206</v>
-      </c>
-      <c r="B28" s="103" t="s">
-        <v>207</v>
-      </c>
-      <c r="C28" s="103" t="s">
-        <v>208</v>
+        <v>203</v>
+      </c>
+      <c r="B28" s="100" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="100" t="s">
+        <v>205</v>
       </c>
       <c r="D28" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="103" t="s">
+      <c r="E28" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="103" t="s">
-        <v>209</v>
-      </c>
-      <c r="G28" s="103" t="s">
-        <v>176</v>
-      </c>
-      <c r="H28" s="103" t="s">
-        <v>176</v>
-      </c>
-      <c r="I28" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="J28" s="61"/>
+      <c r="F28" s="100" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="H28" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="I28" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J28" s="60"/>
     </row>
     <row r="29" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A29" s="115"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
       <c r="D29" s="53" t="s">
-        <v>203</v>
-      </c>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="61"/>
+        <v>200</v>
+      </c>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="60"/>
     </row>
     <row r="30" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A30" s="116"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="101"/>
       <c r="D30" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="63"/>
+        <v>241</v>
+      </c>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="62"/>
     </row>
     <row r="31" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="103" t="s">
+      <c r="A31" s="100" t="s">
+        <v>207</v>
+      </c>
+      <c r="B31" s="100" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="100" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="100" t="s">
+        <v>357</v>
+      </c>
+      <c r="F31" s="100" t="s">
+        <v>363</v>
+      </c>
+      <c r="G31" s="100" t="s">
+        <v>364</v>
+      </c>
+      <c r="H31" s="100" t="s">
+        <v>365</v>
+      </c>
+      <c r="I31" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J31" s="60"/>
+    </row>
+    <row r="32" spans="1:10" s="65" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="92"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="62" t="s">
+        <v>347</v>
+      </c>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="62"/>
+    </row>
+    <row r="33" spans="1:10" s="65" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A33" s="92"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="62" t="s">
+        <v>361</v>
+      </c>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="62"/>
+    </row>
+    <row r="34" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="101"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="60"/>
+    </row>
+    <row r="35" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="100" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" s="100" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="100" t="s">
         <v>210</v>
       </c>
-      <c r="B31" s="103" t="s">
-        <v>192</v>
-      </c>
-      <c r="C31" s="103" t="s">
-        <v>211</v>
-      </c>
-      <c r="D31" s="63" t="s">
+      <c r="D35" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="103" t="s">
-        <v>360</v>
-      </c>
-      <c r="F31" s="103" t="s">
+      <c r="E35" s="100" t="s">
+        <v>357</v>
+      </c>
+      <c r="F35" s="100" t="s">
         <v>366</v>
       </c>
-      <c r="G31" s="103" t="s">
-        <v>367</v>
-      </c>
-      <c r="H31" s="103" t="s">
-        <v>368</v>
-      </c>
-      <c r="I31" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="J31" s="61"/>
-    </row>
-    <row r="32" spans="1:10" s="66" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="99"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="63" t="s">
-        <v>350</v>
-      </c>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="63"/>
-    </row>
-    <row r="33" spans="1:10" s="66" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A33" s="99"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="63" t="s">
-        <v>364</v>
-      </c>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="63"/>
-    </row>
-    <row r="34" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="104"/>
-      <c r="B34" s="104"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="63" t="s">
-        <v>365</v>
-      </c>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="61"/>
-    </row>
-    <row r="35" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="103" t="s">
-        <v>212</v>
-      </c>
-      <c r="B35" s="103" t="s">
-        <v>197</v>
-      </c>
-      <c r="C35" s="103" t="s">
-        <v>213</v>
-      </c>
-      <c r="D35" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="103" t="s">
-        <v>360</v>
-      </c>
-      <c r="F35" s="103" t="s">
-        <v>369</v>
-      </c>
-      <c r="G35" s="103" t="s">
+      <c r="G35" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="H35" s="103" t="s">
-        <v>369</v>
-      </c>
-      <c r="I35" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="J35" s="61"/>
+      <c r="H35" s="100" t="s">
+        <v>366</v>
+      </c>
+      <c r="I35" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J35" s="60"/>
     </row>
     <row r="36" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="99"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="63" t="s">
-        <v>350</v>
-      </c>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="61"/>
+      <c r="A36" s="92"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="62" t="s">
+        <v>347</v>
+      </c>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="60"/>
     </row>
     <row r="37" spans="1:10" ht="25" x14ac:dyDescent="0.25">
-      <c r="A37" s="99"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="63" t="s">
-        <v>364</v>
-      </c>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="61"/>
+      <c r="A37" s="92"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="62" t="s">
+        <v>361</v>
+      </c>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="60"/>
     </row>
     <row r="38" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="104"/>
-      <c r="B38" s="104"/>
-      <c r="C38" s="104"/>
-      <c r="D38" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="E38" s="99"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="61"/>
+      <c r="A38" s="101"/>
+      <c r="B38" s="101"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="62" t="s">
+        <v>353</v>
+      </c>
+      <c r="E38" s="92"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="101"/>
+      <c r="H38" s="101"/>
+      <c r="I38" s="101"/>
+      <c r="J38" s="60"/>
     </row>
     <row r="39" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="55"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
     </row>
     <row r="40" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="56"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
     </row>
     <row r="41" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="56"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
     </row>
     <row r="42" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="56"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
     </row>
     <row r="43" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="56"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="61"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="I23:I27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="H16:H22"/>
+    <mergeCell ref="I16:I22"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="F31:F34"/>
     <mergeCell ref="F16:F22"/>
     <mergeCell ref="G16:G22"/>
     <mergeCell ref="A1:A2"/>
@@ -4978,25 +5005,21 @@
     <mergeCell ref="G11:G15"/>
     <mergeCell ref="H11:H15"/>
     <mergeCell ref="I11:I15"/>
-    <mergeCell ref="H16:H22"/>
-    <mergeCell ref="I16:I22"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="F28:F30"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="B8" xr:uid="{00000000-0002-0000-0900-000000000000}">
@@ -5057,7 +5080,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -5171,577 +5194,601 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="68" t="s">
+      <c r="G10" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="68" t="s">
+      <c r="I10" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="68" t="s">
+      <c r="J10" s="67" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="103" t="s">
-        <v>215</v>
-      </c>
-      <c r="B11" s="103" t="s">
-        <v>216</v>
+      <c r="A11" s="100" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="100" t="s">
+        <v>213</v>
       </c>
       <c r="C11" s="109" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D11" s="53" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="109" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F11" s="109" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G11" s="109" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" s="100" t="s">
+        <v>369</v>
+      </c>
+      <c r="I11" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J11" s="53"/>
+    </row>
+    <row r="12" spans="1:10" ht="47.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="117"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="53" t="s">
+        <v>367</v>
+      </c>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="53"/>
+    </row>
+    <row r="13" spans="1:10" ht="35.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="117"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="53"/>
+    </row>
+    <row r="14" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="117"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="H11" s="103" t="s">
-        <v>372</v>
-      </c>
-      <c r="I11" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="J11" s="53"/>
-    </row>
-    <row r="12" spans="1:10" ht="47.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="120"/>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="53" t="s">
-        <v>370</v>
-      </c>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="53"/>
-    </row>
-    <row r="13" spans="1:10" ht="35.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120"/>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="53" t="s">
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="53"/>
+    </row>
+    <row r="15" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="117"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="53"/>
+    </row>
+    <row r="16" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="117"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="53"/>
-    </row>
-    <row r="14" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="120"/>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="53"/>
-    </row>
-    <row r="15" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="120"/>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="53"/>
-    </row>
-    <row r="16" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="120"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="53" t="s">
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="53"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="118"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="53"/>
+    </row>
+    <row r="18" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="100" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="100" t="s">
         <v>181</v>
       </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="53"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="121"/>
-      <c r="B17" s="121"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="53"/>
-    </row>
-    <row r="18" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="103" t="s">
-        <v>218</v>
-      </c>
-      <c r="B18" s="103" t="s">
-        <v>184</v>
-      </c>
       <c r="C18" s="109" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D18" s="53" t="s">
         <v>76</v>
       </c>
       <c r="E18" s="109" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F18" s="109" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G18" s="109" t="s">
         <v>52</v>
       </c>
       <c r="H18" s="109" t="s">
-        <v>362</v>
-      </c>
-      <c r="I18" s="103" t="s">
-        <v>235</v>
+        <v>359</v>
+      </c>
+      <c r="I18" s="100" t="s">
+        <v>232</v>
       </c>
       <c r="J18" s="53"/>
     </row>
     <row r="19" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="120"/>
-      <c r="B19" s="120"/>
-      <c r="C19" s="120"/>
+      <c r="A19" s="117"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
       <c r="D19" s="53" t="s">
-        <v>370</v>
-      </c>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="99"/>
+        <v>367</v>
+      </c>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="92"/>
       <c r="J19" s="53"/>
     </row>
     <row r="20" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="120"/>
-      <c r="B20" s="120"/>
-      <c r="C20" s="120"/>
+      <c r="A20" s="117"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="117"/>
       <c r="D20" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="53"/>
+    </row>
+    <row r="21" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="117"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="53"/>
+    </row>
+    <row r="22" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+      <c r="A22" s="117"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="62"/>
+    </row>
+    <row r="23" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="117"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="53"/>
-    </row>
-    <row r="21" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="120"/>
-      <c r="B21" s="120"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="53"/>
-    </row>
-    <row r="22" spans="1:10" ht="25" x14ac:dyDescent="0.25">
-      <c r="A22" s="120"/>
-      <c r="B22" s="120"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="63"/>
-    </row>
-    <row r="23" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="120"/>
-      <c r="B23" s="120"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="63"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="62"/>
     </row>
     <row r="24" spans="1:10" ht="50" x14ac:dyDescent="0.25">
-      <c r="A24" s="121"/>
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
+      <c r="A24" s="118"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="118"/>
       <c r="D24" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="62"/>
+    </row>
+    <row r="25" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="100" t="s">
+        <v>216</v>
+      </c>
+      <c r="B25" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" s="100" t="s">
         <v>187</v>
       </c>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="63"/>
-    </row>
-    <row r="25" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="103" t="s">
-        <v>219</v>
-      </c>
-      <c r="B25" s="103" t="s">
-        <v>189</v>
-      </c>
-      <c r="C25" s="103" t="s">
-        <v>190</v>
-      </c>
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="103" t="s">
+      <c r="E25" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="103" t="s">
-        <v>241</v>
-      </c>
-      <c r="G25" s="103" t="s">
-        <v>241</v>
-      </c>
-      <c r="H25" s="103" t="s">
+      <c r="F25" s="100" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" s="100" t="s">
+        <v>238</v>
+      </c>
+      <c r="H25" s="100" t="s">
+        <v>239</v>
+      </c>
+      <c r="I25" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J25" s="62"/>
+    </row>
+    <row r="26" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="92"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="I25" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="J25" s="63"/>
-    </row>
-    <row r="26" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="99"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="63" t="s">
-        <v>245</v>
-      </c>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="63"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="62"/>
     </row>
     <row r="27" spans="1:10" ht="25" x14ac:dyDescent="0.25">
-      <c r="A27" s="99"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="63" t="s">
-        <v>178</v>
-      </c>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="63"/>
+      <c r="A27" s="92"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="62"/>
     </row>
     <row r="28" spans="1:10" ht="25" x14ac:dyDescent="0.25">
-      <c r="A28" s="99"/>
-      <c r="B28" s="99"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="63" t="s">
-        <v>239</v>
-      </c>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="63"/>
+      <c r="A28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="62"/>
     </row>
     <row r="29" spans="1:10" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="104"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="63" t="s">
-        <v>247</v>
-      </c>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="61"/>
+      <c r="A29" s="101"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="62" t="s">
+        <v>244</v>
+      </c>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="60"/>
     </row>
     <row r="30" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="114" t="s">
-        <v>220</v>
-      </c>
-      <c r="B30" s="103" t="s">
-        <v>221</v>
-      </c>
-      <c r="C30" s="103" t="s">
-        <v>222</v>
+        <v>217</v>
+      </c>
+      <c r="B30" s="100" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" s="100" t="s">
+        <v>219</v>
       </c>
       <c r="D30" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103" t="s">
-        <v>374</v>
-      </c>
-      <c r="G30" s="103" t="s">
-        <v>176</v>
-      </c>
-      <c r="H30" s="103" t="s">
-        <v>176</v>
-      </c>
-      <c r="I30" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="J30" s="61"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100" t="s">
+        <v>371</v>
+      </c>
+      <c r="G30" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="H30" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="I30" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J30" s="60"/>
     </row>
     <row r="31" spans="1:10" ht="50" x14ac:dyDescent="0.25">
       <c r="A31" s="115"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
       <c r="D31" s="53" t="s">
-        <v>370</v>
-      </c>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="61"/>
+        <v>367</v>
+      </c>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="60"/>
     </row>
     <row r="32" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A32" s="115"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="61" t="s">
-        <v>244</v>
-      </c>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="61"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="60"/>
     </row>
     <row r="33" spans="1:10" ht="25" x14ac:dyDescent="0.25">
       <c r="A33" s="116"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="61" t="s">
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="60" t="s">
+        <v>370</v>
+      </c>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="60"/>
+    </row>
+    <row r="34" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="100" t="s">
+        <v>220</v>
+      </c>
+      <c r="B34" s="100" t="s">
+        <v>189</v>
+      </c>
+      <c r="C34" s="100" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100" t="s">
+        <v>363</v>
+      </c>
+      <c r="G34" s="100" t="s">
         <v>373</v>
       </c>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="61"/>
-    </row>
-    <row r="34" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="103" t="s">
+      <c r="H34" s="100" t="s">
+        <v>363</v>
+      </c>
+      <c r="I34" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J34" s="60"/>
+    </row>
+    <row r="35" spans="1:10" s="65" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="92"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="62" t="s">
+        <v>347</v>
+      </c>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="62"/>
+    </row>
+    <row r="36" spans="1:10" s="65" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="92"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="62" t="s">
+        <v>372</v>
+      </c>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="62"/>
+    </row>
+    <row r="37" spans="1:10" s="65" customFormat="1" ht="50" x14ac:dyDescent="0.25">
+      <c r="A37" s="101"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="62"/>
+    </row>
+    <row r="38" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="100" t="s">
+        <v>222</v>
+      </c>
+      <c r="B38" s="100" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="100" t="s">
         <v>223</v>
       </c>
-      <c r="B34" s="103" t="s">
-        <v>192</v>
-      </c>
-      <c r="C34" s="103" t="s">
-        <v>224</v>
-      </c>
-      <c r="D34" s="63" t="s">
+      <c r="D38" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103" t="s">
-        <v>366</v>
-      </c>
-      <c r="G34" s="103" t="s">
-        <v>376</v>
-      </c>
-      <c r="H34" s="103" t="s">
-        <v>366</v>
-      </c>
-      <c r="I34" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="J34" s="61"/>
-    </row>
-    <row r="35" spans="1:10" s="66" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="99"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="63" t="s">
-        <v>350</v>
-      </c>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="63"/>
-    </row>
-    <row r="36" spans="1:10" s="66" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="99"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="63" t="s">
-        <v>375</v>
-      </c>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="63"/>
-    </row>
-    <row r="37" spans="1:10" s="66" customFormat="1" ht="50" x14ac:dyDescent="0.25">
-      <c r="A37" s="104"/>
-      <c r="B37" s="104"/>
-      <c r="C37" s="104"/>
-      <c r="D37" s="63" t="s">
-        <v>365</v>
-      </c>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="104"/>
-      <c r="J37" s="63"/>
-    </row>
-    <row r="38" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="103" t="s">
-        <v>225</v>
-      </c>
-      <c r="B38" s="103" t="s">
-        <v>197</v>
-      </c>
-      <c r="C38" s="103" t="s">
-        <v>226</v>
-      </c>
-      <c r="D38" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="103" t="s">
+      <c r="E38" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="F38" s="103" t="s">
+      <c r="F38" s="100" t="s">
+        <v>359</v>
+      </c>
+      <c r="G38" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="100" t="s">
+        <v>359</v>
+      </c>
+      <c r="I38" s="119" t="s">
+        <v>232</v>
+      </c>
+      <c r="J38" s="71"/>
+    </row>
+    <row r="39" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="92"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="62" t="s">
+        <v>347</v>
+      </c>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="120"/>
+      <c r="J39" s="83"/>
+    </row>
+    <row r="40" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="92"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="62" t="s">
+        <v>372</v>
+      </c>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="83"/>
+    </row>
+    <row r="41" spans="1:10" ht="50" x14ac:dyDescent="0.25">
+      <c r="A41" s="101"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="62" t="s">
         <v>362</v>
       </c>
-      <c r="G38" s="103" t="s">
-        <v>52</v>
-      </c>
-      <c r="H38" s="103" t="s">
-        <v>362</v>
-      </c>
-      <c r="I38" s="117" t="s">
-        <v>235</v>
-      </c>
-      <c r="J38" s="72"/>
-    </row>
-    <row r="39" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="99"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="63" t="s">
-        <v>350</v>
-      </c>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="118"/>
-      <c r="J39" s="84"/>
-    </row>
-    <row r="40" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="99"/>
-      <c r="B40" s="99"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="63" t="s">
-        <v>375</v>
-      </c>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="84"/>
-    </row>
-    <row r="41" spans="1:10" ht="50" x14ac:dyDescent="0.25">
-      <c r="A41" s="104"/>
-      <c r="B41" s="104"/>
-      <c r="C41" s="104"/>
-      <c r="D41" s="63" t="s">
-        <v>365</v>
-      </c>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="119"/>
-      <c r="J41" s="84"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="101"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="121"/>
+      <c r="J41" s="83"/>
     </row>
     <row r="42" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="55"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="I25:I29"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="G25:G29"/>
-    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="E18:E24"/>
+    <mergeCell ref="H11:H17"/>
+    <mergeCell ref="I11:I17"/>
+    <mergeCell ref="H18:H24"/>
+    <mergeCell ref="I18:I24"/>
     <mergeCell ref="A25:A29"/>
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="C25:C29"/>
@@ -5758,35 +5805,11 @@
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="B18:B24"/>
     <mergeCell ref="E11:E17"/>
-    <mergeCell ref="E18:E24"/>
-    <mergeCell ref="H11:H17"/>
-    <mergeCell ref="I11:I17"/>
-    <mergeCell ref="H18:H24"/>
-    <mergeCell ref="I18:I24"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="I38:I41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="I25:I29"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="E25:E29"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="B8" xr:uid="{00000000-0002-0000-0A00-000000000000}">
@@ -5997,34 +6020,34 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="93" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="92" t="s">
+      <c r="E11" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="92" t="s">
+      <c r="F11" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="92" t="s">
+      <c r="G11" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="92" t="s">
-        <v>233</v>
-      </c>
-      <c r="I11" s="99" t="s">
-        <v>235</v>
-      </c>
-      <c r="J11" s="92"/>
+      <c r="H11" s="93" t="s">
+        <v>230</v>
+      </c>
+      <c r="I11" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="J11" s="93"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="90"/>
@@ -6055,122 +6078,122 @@
       <c r="J13" s="90"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="96" t="s">
+      <c r="E14" s="97" t="s">
+        <v>229</v>
+      </c>
+      <c r="F14" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="96" t="s">
+        <v>228</v>
+      </c>
+      <c r="H14" s="97" t="s">
+        <v>231</v>
+      </c>
+      <c r="I14" s="94" t="s">
         <v>232</v>
       </c>
-      <c r="F14" s="95" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="95" t="s">
-        <v>231</v>
-      </c>
-      <c r="H14" s="96" t="s">
-        <v>234</v>
-      </c>
-      <c r="I14" s="93" t="s">
-        <v>235</v>
-      </c>
-      <c r="J14" s="95"/>
+      <c r="J14" s="96"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="94"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="71" t="s">
+      <c r="A15" s="95"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="97"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="94"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="E16" s="98"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
+      <c r="A16" s="95"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="99"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="70"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="69"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="70"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="69"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="70"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="69"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="70"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="69"/>
     </row>
     <row r="21" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="70"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="69"/>
     </row>
     <row r="22" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
@@ -10114,6 +10137,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="H14:H16"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="A11:A13"/>
@@ -10124,16 +10157,6 @@
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="H14:H16"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="B8" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -10155,7 +10178,7 @@
   </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="I15" sqref="I15:I17"/>
     </sheetView>
   </sheetViews>
@@ -10278,15 +10301,15 @@
       <c r="C7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="102"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="107"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
@@ -10349,460 +10372,425 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="103" t="s">
+      <c r="C11" s="100" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="103" t="s">
+      <c r="E11" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="103" t="s">
+      <c r="F11" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="103" t="s">
-        <v>271</v>
-      </c>
-      <c r="H11" s="103" t="s">
-        <v>272</v>
-      </c>
-      <c r="I11" s="103" t="s">
-        <v>235</v>
+      <c r="G11" s="100" t="s">
+        <v>268</v>
+      </c>
+      <c r="H11" s="100" t="s">
+        <v>269</v>
+      </c>
+      <c r="I11" s="100" t="s">
+        <v>232</v>
       </c>
       <c r="J11" s="51"/>
     </row>
     <row r="12" spans="1:10" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="99"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="53" t="s">
-        <v>248</v>
-      </c>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
+        <v>245</v>
+      </c>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
       <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="99"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="53" t="s">
-        <v>269</v>
-      </c>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
+        <v>266</v>
+      </c>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
       <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:10" ht="48.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="104"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="76" t="s">
-        <v>270</v>
-      </c>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
+      <c r="A14" s="101"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
       <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="103" t="s">
+      <c r="A15" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="103" t="s">
+      <c r="C15" s="100" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="103" t="s">
+      <c r="E15" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="103" t="s">
-        <v>250</v>
-      </c>
-      <c r="G15" s="103" t="s">
-        <v>250</v>
-      </c>
-      <c r="H15" s="103" t="s">
-        <v>250</v>
-      </c>
-      <c r="I15" s="103" t="s">
-        <v>235</v>
+      <c r="F15" s="100" t="s">
+        <v>247</v>
+      </c>
+      <c r="G15" s="100" t="s">
+        <v>247</v>
+      </c>
+      <c r="H15" s="100" t="s">
+        <v>247</v>
+      </c>
+      <c r="I15" s="100" t="s">
+        <v>232</v>
       </c>
       <c r="J15" s="53"/>
     </row>
     <row r="16" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="99"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="53" t="s">
-        <v>248</v>
-      </c>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
+        <v>245</v>
+      </c>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
       <c r="J16" s="53"/>
     </row>
     <row r="17" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="104"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
+      <c r="A17" s="101"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
       <c r="D17" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
+        <v>246</v>
+      </c>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
       <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="103" t="s">
+      <c r="A18" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="103" t="s">
+      <c r="C18" s="100" t="s">
         <v>55</v>
       </c>
       <c r="D18" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="103" t="s">
+      <c r="E18" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="103" t="s">
+      <c r="F18" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="103" t="s">
+      <c r="G18" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="103" t="s">
-        <v>267</v>
-      </c>
-      <c r="I18" s="103" t="s">
-        <v>235</v>
+      <c r="H18" s="100" t="s">
+        <v>264</v>
+      </c>
+      <c r="I18" s="100" t="s">
+        <v>232</v>
       </c>
       <c r="J18" s="53"/>
     </row>
     <row r="19" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="99"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
+      <c r="A19" s="92"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
       <c r="D19" s="53" t="s">
-        <v>248</v>
-      </c>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
+        <v>245</v>
+      </c>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
       <c r="J19" s="53"/>
     </row>
     <row r="20" spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="99"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="99"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
       <c r="D20" s="53" t="s">
-        <v>265</v>
-      </c>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
+        <v>262</v>
+      </c>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
       <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="104"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="76" t="s">
-        <v>266</v>
-      </c>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
+      <c r="A21" s="101"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="75" t="s">
+        <v>263</v>
+      </c>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
       <c r="J21" s="53"/>
     </row>
     <row r="22" spans="1:10" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="103" t="s">
+      <c r="A22" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="103" t="s">
+      <c r="C22" s="100" t="s">
         <v>60</v>
       </c>
       <c r="D22" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="103" t="s">
+      <c r="E22" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="103" t="s">
+      <c r="F22" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="103" t="s">
+      <c r="G22" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="103" t="s">
-        <v>268</v>
-      </c>
-      <c r="I22" s="103" t="s">
-        <v>235</v>
+      <c r="H22" s="100" t="s">
+        <v>265</v>
+      </c>
+      <c r="I22" s="100" t="s">
+        <v>232</v>
       </c>
       <c r="J22" s="53"/>
     </row>
     <row r="23" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="99"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
+      <c r="A23" s="92"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
       <c r="D23" s="53" t="s">
-        <v>248</v>
-      </c>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
+        <v>245</v>
+      </c>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
       <c r="J23" s="53"/>
     </row>
     <row r="24" spans="1:10" ht="25" x14ac:dyDescent="0.25">
-      <c r="A24" s="99"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
+      <c r="A24" s="92"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
       <c r="D24" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
+        <v>260</v>
+      </c>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
       <c r="J24" s="53"/>
     </row>
     <row r="25" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="104"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="76" t="s">
-        <v>264</v>
-      </c>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="61"/>
+      <c r="A25" s="101"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="75" t="s">
+        <v>261</v>
+      </c>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="60"/>
     </row>
     <row r="26" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="103" t="s">
+      <c r="A26" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="103" t="s">
+      <c r="C26" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="62" t="s">
+      <c r="D26" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="105" t="s">
+      <c r="E26" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="103" t="s">
+      <c r="F26" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="103" t="s">
+      <c r="G26" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="H26" s="103" t="s">
+      <c r="H26" s="100" t="s">
+        <v>255</v>
+      </c>
+      <c r="I26" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J26" s="61"/>
+    </row>
+    <row r="27" spans="1:10" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="92"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="61" t="s">
+        <v>252</v>
+      </c>
+      <c r="E27" s="103"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="23"/>
+    </row>
+    <row r="28" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="E28" s="103"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="23"/>
+    </row>
+    <row r="29" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+      <c r="A29" s="101"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="E29" s="104"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="23"/>
+    </row>
+    <row r="30" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="100" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="100" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="100" t="s">
         <v>258</v>
       </c>
-      <c r="I26" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="J26" s="62"/>
-    </row>
-    <row r="27" spans="1:10" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="99"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="62" t="s">
-        <v>255</v>
-      </c>
-      <c r="E27" s="106"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="23"/>
-    </row>
-    <row r="28" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="99"/>
-      <c r="B28" s="99"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="62" t="s">
+      <c r="H30" s="100" t="s">
+        <v>259</v>
+      </c>
+      <c r="I30" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J30" s="23"/>
+    </row>
+    <row r="31" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="92"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="61" t="s">
+        <v>252</v>
+      </c>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="23"/>
+    </row>
+    <row r="32" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+      <c r="A32" s="92"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="61" t="s">
         <v>256</v>
       </c>
-      <c r="E28" s="106"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="23"/>
-    </row>
-    <row r="29" spans="1:10" ht="25" x14ac:dyDescent="0.25">
-      <c r="A29" s="104"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="62" t="s">
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="23"/>
+    </row>
+    <row r="33" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+      <c r="A33" s="101"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="61" t="s">
         <v>257</v>
       </c>
-      <c r="E29" s="107"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="23"/>
-    </row>
-    <row r="30" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="103" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="103" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="103" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="103" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="G30" s="103" t="s">
-        <v>261</v>
-      </c>
-      <c r="H30" s="103" t="s">
-        <v>262</v>
-      </c>
-      <c r="I30" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="J30" s="23"/>
-    </row>
-    <row r="31" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="99"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="62" t="s">
-        <v>255</v>
-      </c>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="23"/>
-    </row>
-    <row r="32" spans="1:10" ht="25" x14ac:dyDescent="0.25">
-      <c r="A32" s="99"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="23"/>
-    </row>
-    <row r="33" spans="1:10" ht="25" x14ac:dyDescent="0.25">
-      <c r="A33" s="104"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="62" t="s">
-        <v>260</v>
-      </c>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="101"/>
       <c r="J33" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="I26:I29"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="D7:J7"/>
@@ -10819,6 +10807,41 @@
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="F11:F14"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="I18:I21"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="B8" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -10838,10 +10861,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11027,25 +11050,33 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="93" t="s">
         <v>75</v>
       </c>
       <c r="D11" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="92" t="s">
+      <c r="E11" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="60"/>
+      <c r="G11" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="100" t="s">
+        <v>232</v>
+      </c>
       <c r="J11" s="51"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11055,11 +11086,11 @@
       <c r="D12" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="53"/>
+      <c r="E12" s="92"/>
       <c r="F12" s="90"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="56"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="92"/>
       <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" ht="36.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11069,218 +11100,270 @@
       <c r="D13" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="53"/>
+      <c r="E13" s="101"/>
       <c r="F13" s="108"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="56"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="101"/>
       <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:10" ht="59" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="52" t="s">
+      <c r="D14" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="100" t="s">
+        <v>381</v>
+      </c>
+      <c r="F14" s="100" t="s">
+        <v>377</v>
+      </c>
+      <c r="G14" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="100" t="s">
+        <v>377</v>
+      </c>
+      <c r="I14" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J14" s="53"/>
+    </row>
+    <row r="15" spans="1:10" s="88" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="92"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="53"/>
+    </row>
+    <row r="16" spans="1:10" s="88" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="92"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="53" t="s">
+        <v>375</v>
+      </c>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="53"/>
+    </row>
+    <row r="17" spans="1:10" s="88" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="92"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="53" t="s">
+        <v>376</v>
+      </c>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="53"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="101"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="53"/>
+    </row>
+    <row r="19" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="53"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="53"/>
-    </row>
-    <row r="16" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
+      <c r="B19" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="C19" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="D19" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="100" t="s">
+        <v>382</v>
+      </c>
+      <c r="F19" s="100" t="s">
+        <v>379</v>
+      </c>
+      <c r="G19" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="100" t="s">
+        <v>379</v>
+      </c>
+      <c r="I19" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J19" s="53"/>
+    </row>
+    <row r="20" spans="1:10" s="88" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="53"/>
+    </row>
+    <row r="21" spans="1:10" s="88" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="53" t="s">
+        <v>378</v>
+      </c>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="53"/>
+    </row>
+    <row r="22" spans="1:10" s="88" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="53" t="s">
+        <v>376</v>
+      </c>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="53"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="101"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="60"/>
+    </row>
+    <row r="24" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="52" t="s">
+      <c r="B24" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="53"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-    </row>
-    <row r="18" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="C24" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="D24" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="100" t="s">
+        <v>382</v>
+      </c>
+      <c r="F24" s="100" t="s">
+        <v>380</v>
+      </c>
+      <c r="G24" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-    </row>
-    <row r="21" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-    </row>
-    <row r="22" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-    </row>
-    <row r="23" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-    </row>
-    <row r="24" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-    </row>
-    <row r="25" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-    </row>
-    <row r="26" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-    </row>
-    <row r="27" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
+      <c r="H24" s="100" t="s">
+        <v>380</v>
+      </c>
+      <c r="I24" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J24" s="60"/>
+    </row>
+    <row r="25" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="92"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="60"/>
+    </row>
+    <row r="26" spans="1:10" ht="53.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="92"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="53" t="s">
+        <v>378</v>
+      </c>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="60"/>
+    </row>
+    <row r="27" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="92"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="53" t="s">
+        <v>376</v>
+      </c>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="60"/>
     </row>
     <row r="28" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
+      <c r="A28" s="101"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="60"/>
     </row>
     <row r="29" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="57"/>
@@ -11414,19 +11497,119 @@
       <c r="I39" s="58"/>
       <c r="J39" s="58"/>
     </row>
-    <row r="40" spans="1:10" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:10" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:10" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:10" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:10" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="57"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+    </row>
+    <row r="41" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="57"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+    </row>
+    <row r="42" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="57"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+    </row>
+    <row r="43" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="57"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+    </row>
+    <row r="44" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="57"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+    </row>
+    <row r="45" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="57"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+    </row>
+    <row r="46" spans="1:10" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:10" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:10" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="12.5" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="34">
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="F11:F13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="B8" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -11448,8 +11631,8 @@
   </sheetPr>
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11564,7 +11747,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>12</v>
@@ -11631,14 +11814,14 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="103" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="103" t="s">
-        <v>95</v>
+      <c r="A11" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="100" t="s">
+        <v>92</v>
       </c>
       <c r="C11" s="109" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D11" s="52" t="s">
         <v>76</v>
@@ -11647,16 +11830,16 @@
         <v>52</v>
       </c>
       <c r="F11" s="109" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G11" s="109" t="s">
-        <v>273</v>
-      </c>
-      <c r="H11" s="103" t="s">
-        <v>274</v>
-      </c>
-      <c r="I11" s="103" t="s">
-        <v>235</v>
+        <v>270</v>
+      </c>
+      <c r="H11" s="100" t="s">
+        <v>271</v>
+      </c>
+      <c r="I11" s="100" t="s">
+        <v>232</v>
       </c>
       <c r="J11" s="53"/>
     </row>
@@ -11665,13 +11848,13 @@
       <c r="B12" s="90"/>
       <c r="C12" s="90"/>
       <c r="D12" s="52" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E12" s="90"/>
       <c r="F12" s="90"/>
       <c r="G12" s="90"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
       <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11679,13 +11862,13 @@
       <c r="B13" s="90"/>
       <c r="C13" s="90"/>
       <c r="D13" s="52" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E13" s="90"/>
       <c r="F13" s="90"/>
       <c r="G13" s="90"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
       <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -11693,13 +11876,13 @@
       <c r="B14" s="90"/>
       <c r="C14" s="90"/>
       <c r="D14" s="52" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E14" s="90"/>
       <c r="F14" s="90"/>
       <c r="G14" s="90"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
       <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" ht="52" customHeight="1" x14ac:dyDescent="0.25">
@@ -11707,24 +11890,24 @@
       <c r="B15" s="108"/>
       <c r="C15" s="108"/>
       <c r="D15" s="52" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E15" s="108"/>
       <c r="F15" s="108"/>
       <c r="G15" s="108"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
       <c r="J15" s="53"/>
     </row>
     <row r="16" spans="1:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="103" t="s">
-        <v>103</v>
+      <c r="A16" s="100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="100" t="s">
+        <v>100</v>
       </c>
       <c r="C16" s="109" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>76</v>
@@ -11733,16 +11916,16 @@
         <v>52</v>
       </c>
       <c r="F16" s="109" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G16" s="109" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" s="103" t="s">
-        <v>236</v>
-      </c>
-      <c r="I16" s="103" t="s">
-        <v>235</v>
+        <v>102</v>
+      </c>
+      <c r="H16" s="100" t="s">
+        <v>233</v>
+      </c>
+      <c r="I16" s="100" t="s">
+        <v>232</v>
       </c>
       <c r="J16" s="53"/>
     </row>
@@ -11751,13 +11934,13 @@
       <c r="B17" s="90"/>
       <c r="C17" s="90"/>
       <c r="D17" s="52" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E17" s="90"/>
       <c r="F17" s="90"/>
       <c r="G17" s="90"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
       <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:10" ht="36.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11765,13 +11948,13 @@
       <c r="B18" s="90"/>
       <c r="C18" s="90"/>
       <c r="D18" s="52" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E18" s="90"/>
       <c r="F18" s="90"/>
       <c r="G18" s="90"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
       <c r="J18" s="53"/>
     </row>
     <row r="19" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.25">
@@ -11779,13 +11962,13 @@
       <c r="B19" s="90"/>
       <c r="C19" s="90"/>
       <c r="D19" s="52" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E19" s="90"/>
       <c r="F19" s="90"/>
       <c r="G19" s="90"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
       <c r="J19" s="53"/>
     </row>
     <row r="20" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.25">
@@ -11793,515 +11976,490 @@
       <c r="B20" s="108"/>
       <c r="C20" s="108"/>
       <c r="D20" s="52" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E20" s="108"/>
       <c r="F20" s="108"/>
       <c r="G20" s="108"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
       <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="103" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="103" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="103" t="s">
-        <v>227</v>
+      <c r="A21" s="100" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="100" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="100" t="s">
+        <v>224</v>
       </c>
       <c r="D21" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="103" t="s">
+      <c r="E21" s="100" t="s">
+        <v>281</v>
+      </c>
+      <c r="F21" s="100" t="s">
+        <v>283</v>
+      </c>
+      <c r="G21" s="100" t="s">
         <v>284</v>
       </c>
-      <c r="F21" s="103" t="s">
-        <v>286</v>
-      </c>
-      <c r="G21" s="103" t="s">
-        <v>287</v>
-      </c>
-      <c r="H21" s="103" t="s">
-        <v>288</v>
-      </c>
-      <c r="I21" s="103" t="s">
-        <v>235</v>
+      <c r="H21" s="100" t="s">
+        <v>285</v>
+      </c>
+      <c r="I21" s="100" t="s">
+        <v>232</v>
       </c>
       <c r="J21" s="53"/>
     </row>
     <row r="22" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="99"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
       <c r="D22" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="53"/>
+    </row>
+    <row r="23" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+      <c r="A23" s="92"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="53" t="s">
+        <v>273</v>
+      </c>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="53"/>
+    </row>
+    <row r="24" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+      <c r="A24" s="92"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="60"/>
+    </row>
+    <row r="25" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="92"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="53"/>
-    </row>
-    <row r="23" spans="1:10" ht="25" x14ac:dyDescent="0.25">
-      <c r="A23" s="99"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="53" t="s">
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="62"/>
+    </row>
+    <row r="26" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+      <c r="A26" s="92"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="53"/>
-    </row>
-    <row r="24" spans="1:10" ht="25" x14ac:dyDescent="0.25">
-      <c r="A24" s="99"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="61" t="s">
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="62"/>
+    </row>
+    <row r="27" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="101"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="60" t="s">
         <v>277</v>
       </c>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="61"/>
-    </row>
-    <row r="25" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="99"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="63" t="s">
-        <v>278</v>
-      </c>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="63"/>
-    </row>
-    <row r="26" spans="1:10" ht="25" x14ac:dyDescent="0.25">
-      <c r="A26" s="99"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="63" t="s">
-        <v>279</v>
-      </c>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="63"/>
-    </row>
-    <row r="27" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="104"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="61" t="s">
-        <v>280</v>
-      </c>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="61"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="60"/>
     </row>
     <row r="28" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="103" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" s="103" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="103" t="s">
-        <v>228</v>
+      <c r="A28" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="100" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="100" t="s">
+        <v>225</v>
       </c>
       <c r="D28" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="103" t="s">
-        <v>285</v>
-      </c>
-      <c r="F28" s="103" t="s">
+      <c r="E28" s="100" t="s">
+        <v>282</v>
+      </c>
+      <c r="F28" s="100" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="100" t="s">
+        <v>284</v>
+      </c>
+      <c r="H28" s="100" t="s">
+        <v>286</v>
+      </c>
+      <c r="I28" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J28" s="100"/>
+    </row>
+    <row r="29" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="92"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+    </row>
+    <row r="30" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+      <c r="A30" s="92"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="53" t="s">
+        <v>273</v>
+      </c>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+    </row>
+    <row r="31" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+      <c r="A31" s="92"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+    </row>
+    <row r="32" spans="1:10" ht="50" x14ac:dyDescent="0.25">
+      <c r="A32" s="92"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+    </row>
+    <row r="33" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+      <c r="A33" s="92"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="62" t="s">
+        <v>280</v>
+      </c>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+    </row>
+    <row r="34" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="92"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="71" t="s">
+        <v>277</v>
+      </c>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+    </row>
+    <row r="35" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="G28" s="103" t="s">
+      <c r="B35" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="94" t="s">
         <v>287</v>
       </c>
-      <c r="H28" s="103" t="s">
+      <c r="F35" s="94" t="s">
+        <v>288</v>
+      </c>
+      <c r="G35" s="97" t="s">
         <v>289</v>
       </c>
-      <c r="I28" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="J28" s="103"/>
-    </row>
-    <row r="29" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="99"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="53" t="s">
-        <v>275</v>
-      </c>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-    </row>
-    <row r="30" spans="1:10" ht="25" x14ac:dyDescent="0.25">
-      <c r="A30" s="99"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="53" t="s">
-        <v>276</v>
-      </c>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-    </row>
-    <row r="31" spans="1:10" ht="25" x14ac:dyDescent="0.25">
-      <c r="A31" s="99"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="63" t="s">
-        <v>281</v>
-      </c>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-    </row>
-    <row r="32" spans="1:10" ht="50" x14ac:dyDescent="0.25">
-      <c r="A32" s="99"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="63" t="s">
-        <v>282</v>
-      </c>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-    </row>
-    <row r="33" spans="1:10" ht="25" x14ac:dyDescent="0.25">
-      <c r="A33" s="99"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="63" t="s">
-        <v>283</v>
-      </c>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-    </row>
-    <row r="34" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="99"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="72" t="s">
-        <v>280</v>
-      </c>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-    </row>
-    <row r="35" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="93" t="s">
+      <c r="H35" s="97" t="s">
+        <v>290</v>
+      </c>
+      <c r="I35" s="97" t="s">
+        <v>232</v>
+      </c>
+      <c r="J35" s="73"/>
+    </row>
+    <row r="36" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="94"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="73"/>
+    </row>
+    <row r="37" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="94"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="98"/>
+      <c r="J37" s="73"/>
+    </row>
+    <row r="38" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+      <c r="A38" s="94"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="98"/>
+      <c r="J38" s="73"/>
+    </row>
+    <row r="39" spans="1:10" ht="50" x14ac:dyDescent="0.25">
+      <c r="A39" s="94"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="94"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="98"/>
+      <c r="J39" s="73"/>
+    </row>
+    <row r="40" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+      <c r="A40" s="94"/>
+      <c r="B40" s="94"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="D35" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="93" t="s">
-        <v>290</v>
-      </c>
-      <c r="F35" s="93" t="s">
-        <v>291</v>
-      </c>
-      <c r="G35" s="96" t="s">
-        <v>292</v>
-      </c>
-      <c r="H35" s="96" t="s">
-        <v>293</v>
-      </c>
-      <c r="I35" s="96" t="s">
-        <v>235</v>
-      </c>
-      <c r="J35" s="74"/>
-    </row>
-    <row r="36" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="93"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="74"/>
-    </row>
-    <row r="37" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="93"/>
-      <c r="B37" s="93"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="74"/>
-    </row>
-    <row r="38" spans="1:10" ht="25" x14ac:dyDescent="0.25">
-      <c r="A38" s="93"/>
-      <c r="B38" s="93"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="74"/>
-    </row>
-    <row r="39" spans="1:10" ht="50" x14ac:dyDescent="0.25">
-      <c r="A39" s="93"/>
-      <c r="B39" s="93"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="74"/>
-    </row>
-    <row r="40" spans="1:10" ht="25" x14ac:dyDescent="0.25">
-      <c r="A40" s="93"/>
-      <c r="B40" s="93"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="98"/>
-      <c r="I40" s="98"/>
-      <c r="J40" s="74"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="73"/>
     </row>
     <row r="41" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="69"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="73"/>
+      <c r="A41" s="68"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
     </row>
     <row r="42" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="69"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="73"/>
+      <c r="A42" s="68"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
     </row>
     <row r="43" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="69"/>
-      <c r="B43" s="73"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="73"/>
+      <c r="A43" s="68"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
     </row>
     <row r="44" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="69"/>
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="73"/>
+      <c r="A44" s="68"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
     </row>
     <row r="45" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="69"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
+      <c r="A45" s="68"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
     </row>
     <row r="46" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="69"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
+      <c r="A46" s="68"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
     </row>
     <row r="47" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="69"/>
-      <c r="B47" s="73"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="73"/>
-      <c r="I47" s="73"/>
-      <c r="J47" s="73"/>
+      <c r="A47" s="68"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
     </row>
     <row r="48" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="69"/>
-      <c r="B48" s="73"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73"/>
+      <c r="A48" s="68"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
     </row>
     <row r="49" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="69"/>
-      <c r="B49" s="73"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="73"/>
+      <c r="A49" s="68"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="72"/>
     </row>
     <row r="50" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="69"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="73"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73"/>
-      <c r="G50" s="73"/>
-      <c r="H50" s="73"/>
-      <c r="I50" s="73"/>
-      <c r="J50" s="73"/>
+      <c r="A50" s="68"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
     </row>
     <row r="51" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="69"/>
-      <c r="B51" s="73"/>
-      <c r="C51" s="73"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="73"/>
-      <c r="I51" s="73"/>
-      <c r="J51" s="73"/>
+      <c r="A51" s="68"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="72"/>
     </row>
     <row r="52" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="69"/>
-      <c r="B52" s="73"/>
-      <c r="C52" s="73"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="73"/>
-      <c r="I52" s="73"/>
-      <c r="J52" s="73"/>
+      <c r="A52" s="68"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="J28:J34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="E35:E40"/>
-    <mergeCell ref="F35:F40"/>
-    <mergeCell ref="G35:G40"/>
-    <mergeCell ref="H35:H40"/>
-    <mergeCell ref="I35:I40"/>
-    <mergeCell ref="H28:H34"/>
-    <mergeCell ref="I28:I34"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="F21:F27"/>
-    <mergeCell ref="G28:G34"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="F28:F34"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="G21:G27"/>
-    <mergeCell ref="H21:H27"/>
+    <mergeCell ref="A11:A15"/>
     <mergeCell ref="I21:I27"/>
     <mergeCell ref="C16:C20"/>
     <mergeCell ref="E16:E20"/>
@@ -12318,7 +12476,32 @@
     <mergeCell ref="I16:I20"/>
     <mergeCell ref="I11:I15"/>
     <mergeCell ref="H11:H15"/>
-    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="F28:F34"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="G21:G27"/>
+    <mergeCell ref="H21:H27"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="F21:F27"/>
+    <mergeCell ref="J28:J34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="E35:E40"/>
+    <mergeCell ref="F35:F40"/>
+    <mergeCell ref="G35:G40"/>
+    <mergeCell ref="H35:H40"/>
+    <mergeCell ref="I35:I40"/>
+    <mergeCell ref="H28:H34"/>
+    <mergeCell ref="I28:I34"/>
+    <mergeCell ref="G28:G34"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="E28:E34"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="B8" xr:uid="{00000000-0002-0000-0400-000000000000}">
@@ -12340,7 +12523,7 @@
   </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="I17" sqref="I17:I19"/>
     </sheetView>
   </sheetViews>
@@ -12379,7 +12562,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -12458,13 +12641,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J7" s="21"/>
     </row>
@@ -12473,7 +12656,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -12529,585 +12712,603 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="103" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="103" t="s">
-        <v>121</v>
+      <c r="A11" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="100" t="s">
+        <v>118</v>
       </c>
       <c r="D11" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="103" t="s">
+      <c r="E11" s="100" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="100" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="100" t="s">
+        <v>301</v>
+      </c>
+      <c r="H11" s="100" t="s">
+        <v>234</v>
+      </c>
+      <c r="I11" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J11" s="53"/>
+    </row>
+    <row r="12" spans="1:10" ht="62" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="92"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="53"/>
+    </row>
+    <row r="13" spans="1:10" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="92"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="53"/>
+    </row>
+    <row r="14" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="92"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="53"/>
+    </row>
+    <row r="15" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="92"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="53"/>
+    </row>
+    <row r="16" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="101"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="53" t="s">
+        <v>300</v>
+      </c>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="53"/>
+    </row>
+    <row r="17" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="100" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="103" t="s">
+      <c r="C17" s="100" t="s">
         <v>123</v>
-      </c>
-      <c r="G11" s="103" t="s">
-        <v>304</v>
-      </c>
-      <c r="H11" s="103" t="s">
-        <v>237</v>
-      </c>
-      <c r="I11" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="J11" s="53"/>
-    </row>
-    <row r="12" spans="1:10" ht="62" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="99"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="53" t="s">
-        <v>299</v>
-      </c>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="53"/>
-    </row>
-    <row r="13" spans="1:10" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="99"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="53" t="s">
-        <v>300</v>
-      </c>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="53"/>
-    </row>
-    <row r="14" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="99"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="53" t="s">
-        <v>301</v>
-      </c>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="53"/>
-    </row>
-    <row r="15" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="99"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="53" t="s">
-        <v>302</v>
-      </c>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="53"/>
-    </row>
-    <row r="16" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="104"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="53" t="s">
-        <v>303</v>
-      </c>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="53"/>
-    </row>
-    <row r="17" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="103" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="103" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="103" t="s">
-        <v>126</v>
       </c>
       <c r="D17" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="103" t="s">
+      <c r="E17" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="103" t="s">
-        <v>238</v>
-      </c>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103" t="s">
-        <v>238</v>
-      </c>
-      <c r="I17" s="103" t="s">
+      <c r="F17" s="100" t="s">
         <v>235</v>
       </c>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100" t="s">
+        <v>235</v>
+      </c>
+      <c r="I17" s="100" t="s">
+        <v>232</v>
+      </c>
       <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="99"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
       <c r="D18" s="53" t="s">
-        <v>299</v>
-      </c>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
+        <v>296</v>
+      </c>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
       <c r="J18" s="53"/>
     </row>
     <row r="19" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="104"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="104"/>
+      <c r="A19" s="101"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
       <c r="D19" s="53" t="s">
-        <v>377</v>
-      </c>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
+        <v>374</v>
+      </c>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
       <c r="J19" s="53"/>
     </row>
     <row r="20" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="103" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="103" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="103" t="s">
-        <v>129</v>
+      <c r="A20" s="100" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="100" t="s">
+        <v>126</v>
       </c>
       <c r="D20" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="103" t="s">
+      <c r="E20" s="100" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="100" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="100" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" s="100" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J20" s="53"/>
+    </row>
+    <row r="21" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="53"/>
+    </row>
+    <row r="22" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="53"/>
+    </row>
+    <row r="23" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="92"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="62" t="s">
+        <v>302</v>
+      </c>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="53"/>
+    </row>
+    <row r="24" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="53" t="s">
+        <v>303</v>
+      </c>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="53"/>
+    </row>
+    <row r="25" spans="1:10" ht="42.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="100" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="103" t="s">
+      <c r="C25" s="100" t="s">
         <v>131</v>
-      </c>
-      <c r="G20" s="103" t="s">
-        <v>131</v>
-      </c>
-      <c r="H20" s="103" t="s">
-        <v>131</v>
-      </c>
-      <c r="I20" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="J20" s="53"/>
-    </row>
-    <row r="21" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="99"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="53" t="s">
-        <v>295</v>
-      </c>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="53"/>
-    </row>
-    <row r="22" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="99"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="63" t="s">
-        <v>296</v>
-      </c>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="53"/>
-    </row>
-    <row r="23" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="99"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="63" t="s">
-        <v>305</v>
-      </c>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="53"/>
-    </row>
-    <row r="24" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="104"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="53" t="s">
-        <v>306</v>
-      </c>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="53"/>
-    </row>
-    <row r="25" spans="1:10" ht="42.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="103" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" s="103" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="103" t="s">
-        <v>134</v>
       </c>
       <c r="D25" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="103" t="s">
+      <c r="E25" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="103" t="s">
-        <v>229</v>
-      </c>
-      <c r="G25" s="103" t="s">
+      <c r="F25" s="100" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="103" t="s">
+      <c r="H25" s="100" t="s">
+        <v>291</v>
+      </c>
+      <c r="I25" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J25" s="53"/>
+    </row>
+    <row r="26" spans="1:10" ht="50" x14ac:dyDescent="0.25">
+      <c r="A26" s="92"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="53"/>
+    </row>
+    <row r="27" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="92"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="I25" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="J25" s="53"/>
-    </row>
-    <row r="26" spans="1:10" ht="50" x14ac:dyDescent="0.25">
-      <c r="A26" s="99"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="53" t="s">
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="60"/>
+    </row>
+    <row r="28" spans="1:10" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="101"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="60" t="s">
         <v>295</v>
       </c>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="53"/>
-    </row>
-    <row r="27" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="99"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="61" t="s">
-        <v>297</v>
-      </c>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="61"/>
-    </row>
-    <row r="28" spans="1:10" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="104"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="61" t="s">
-        <v>298</v>
-      </c>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="61"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="60"/>
     </row>
     <row r="29" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
     </row>
     <row r="30" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
     </row>
     <row r="31" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
     </row>
     <row r="32" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
     </row>
     <row r="33" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="56"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
     </row>
     <row r="34" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="56"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
     </row>
     <row r="35" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="56"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
     </row>
     <row r="36" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="56"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
     </row>
     <row r="37" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="56"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
     </row>
     <row r="38" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="56"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
     </row>
     <row r="39" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="56"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
     </row>
     <row r="40" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="56"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
     </row>
     <row r="41" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="56"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
     </row>
     <row r="42" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="56"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
     </row>
     <row r="43" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="56"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="61"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
     </row>
     <row r="44" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="56"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="61"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
     </row>
     <row r="45" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="56"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="61"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
     </row>
     <row r="46" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="56"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="61"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
     </row>
     <row r="47" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="56"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
     </row>
     <row r="48" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="56"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="61"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
     </row>
     <row r="49" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="56"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
     </row>
     <row r="50" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="56"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="61"/>
-      <c r="J50" s="61"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="E11:E16"/>
     <mergeCell ref="H17:H19"/>
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="H11:H16"/>
@@ -13124,24 +13325,6 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="I25:I28"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="G11:G16"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="B8" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -13163,8 +13346,8 @@
   </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13202,7 +13385,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -13346,32 +13529,32 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="103" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="103" t="s">
-        <v>137</v>
+      <c r="A11" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="100" t="s">
+        <v>134</v>
       </c>
       <c r="C11" s="109" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D11" s="52" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="109" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F11" s="109" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G11" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="H11" s="103" t="s">
-        <v>309</v>
-      </c>
-      <c r="I11" s="103" t="s">
-        <v>235</v>
+        <v>136</v>
+      </c>
+      <c r="H11" s="100" t="s">
+        <v>306</v>
+      </c>
+      <c r="I11" s="100" t="s">
+        <v>232</v>
       </c>
       <c r="J11" s="53"/>
     </row>
@@ -13380,13 +13563,13 @@
       <c r="B12" s="90"/>
       <c r="C12" s="90"/>
       <c r="D12" s="52" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E12" s="90"/>
       <c r="F12" s="90"/>
       <c r="G12" s="90"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
       <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13394,13 +13577,13 @@
       <c r="B13" s="90"/>
       <c r="C13" s="90"/>
       <c r="D13" s="52" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E13" s="90"/>
       <c r="F13" s="90"/>
       <c r="G13" s="90"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
       <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -13408,38 +13591,38 @@
       <c r="B14" s="90"/>
       <c r="C14" s="90"/>
       <c r="D14" s="53" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E14" s="90"/>
       <c r="F14" s="90"/>
       <c r="G14" s="90"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
       <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="108"/>
       <c r="B15" s="108"/>
       <c r="C15" s="108"/>
-      <c r="D15" s="76" t="s">
-        <v>308</v>
+      <c r="D15" s="75" t="s">
+        <v>305</v>
       </c>
       <c r="E15" s="108"/>
       <c r="F15" s="108"/>
       <c r="G15" s="108"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
       <c r="J15" s="53"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="103" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="103" t="s">
-        <v>144</v>
+      <c r="A16" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="100" t="s">
+        <v>141</v>
       </c>
       <c r="C16" s="109" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>76</v>
@@ -13448,16 +13631,16 @@
         <v>52</v>
       </c>
       <c r="F16" s="109" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G16" s="109" t="s">
-        <v>146</v>
-      </c>
-      <c r="H16" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="103" t="s">
-        <v>235</v>
+      <c r="I16" s="100" t="s">
+        <v>232</v>
       </c>
       <c r="J16" s="53"/>
     </row>
@@ -13466,13 +13649,13 @@
       <c r="B17" s="90"/>
       <c r="C17" s="90"/>
       <c r="D17" s="52" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E17" s="90"/>
       <c r="F17" s="90"/>
       <c r="G17" s="90"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
       <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:10" ht="71" customHeight="1" x14ac:dyDescent="0.25">
@@ -13480,13 +13663,13 @@
       <c r="B18" s="108"/>
       <c r="C18" s="108"/>
       <c r="D18" s="52" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E18" s="108"/>
       <c r="F18" s="108"/>
       <c r="G18" s="108"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
       <c r="J18" s="53"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13551,47 +13734,42 @@
     </row>
     <row r="24" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
     </row>
     <row r="25" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
     </row>
     <row r="26" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B6:I6"/>
@@ -13605,6 +13783,11 @@
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="I11:I15"/>
     <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="B8" xr:uid="{00000000-0002-0000-0600-000000000000}">
@@ -13627,7 +13810,7 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
@@ -13666,7 +13849,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -13756,7 +13939,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -13812,41 +13995,41 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="99" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="92" t="s">
-        <v>152</v>
+      <c r="A11" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="93" t="s">
+        <v>149</v>
       </c>
       <c r="D11" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="92" t="s">
+      <c r="E11" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="92" t="s">
-        <v>153</v>
-      </c>
-      <c r="G11" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="H11" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="I11" s="99" t="s">
-        <v>235</v>
-      </c>
-      <c r="J11" s="92"/>
+      <c r="F11" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="93" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="93" t="s">
+        <v>146</v>
+      </c>
+      <c r="I11" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="J11" s="93"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="90"/>
       <c r="B12" s="90"/>
       <c r="C12" s="90"/>
       <c r="D12" s="52" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E12" s="90"/>
       <c r="F12" s="90"/>
@@ -13860,7 +14043,7 @@
       <c r="B13" s="108"/>
       <c r="C13" s="108"/>
       <c r="D13" s="52" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E13" s="108"/>
       <c r="F13" s="108"/>
@@ -13870,32 +14053,32 @@
       <c r="J13" s="108"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="103" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" s="103" t="s">
-        <v>157</v>
+      <c r="A14" s="100" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="100" t="s">
+        <v>154</v>
       </c>
       <c r="C14" s="109" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D14" s="50" t="s">
         <v>76</v>
       </c>
       <c r="E14" s="109" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F14" s="109" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G14" s="109" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H14" s="109" t="s">
-        <v>252</v>
-      </c>
-      <c r="I14" s="103" t="s">
-        <v>235</v>
+        <v>249</v>
+      </c>
+      <c r="I14" s="100" t="s">
+        <v>232</v>
       </c>
       <c r="J14" s="53"/>
     </row>
@@ -13904,7 +14087,7 @@
       <c r="B15" s="90"/>
       <c r="C15" s="90"/>
       <c r="D15" s="52" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E15" s="90"/>
       <c r="F15" s="90"/>
@@ -13918,7 +14101,7 @@
       <c r="B16" s="90"/>
       <c r="C16" s="90"/>
       <c r="D16" s="52" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E16" s="90"/>
       <c r="F16" s="90"/>
@@ -13932,7 +14115,7 @@
       <c r="B17" s="90"/>
       <c r="C17" s="90"/>
       <c r="D17" s="52" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E17" s="90"/>
       <c r="F17" s="90"/>
@@ -13946,7 +14129,7 @@
       <c r="B18" s="90"/>
       <c r="C18" s="90"/>
       <c r="D18" s="52" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E18" s="90"/>
       <c r="F18" s="90"/>
@@ -13960,7 +14143,7 @@
       <c r="B19" s="90"/>
       <c r="C19" s="90"/>
       <c r="D19" s="52" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E19" s="90"/>
       <c r="F19" s="90"/>
@@ -13974,7 +14157,7 @@
       <c r="B20" s="108"/>
       <c r="C20" s="108"/>
       <c r="D20" s="52" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E20" s="108"/>
       <c r="F20" s="108"/>
@@ -13984,14 +14167,14 @@
       <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="103" t="s">
-        <v>165</v>
-      </c>
-      <c r="B21" s="103" t="s">
-        <v>166</v>
+      <c r="A21" s="100" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="100" t="s">
+        <v>163</v>
       </c>
       <c r="C21" s="109" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D21" s="50" t="s">
         <v>76</v>
@@ -14000,16 +14183,16 @@
         <v>52</v>
       </c>
       <c r="F21" s="109" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G21" s="109" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H21" s="109" t="s">
-        <v>241</v>
-      </c>
-      <c r="I21" s="103" t="s">
-        <v>235</v>
+        <v>238</v>
+      </c>
+      <c r="I21" s="100" t="s">
+        <v>232</v>
       </c>
       <c r="J21" s="53"/>
     </row>
@@ -14018,99 +14201,112 @@
       <c r="B22" s="90"/>
       <c r="C22" s="90"/>
       <c r="D22" s="52" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
       <c r="G22" s="90"/>
       <c r="H22" s="90"/>
       <c r="I22" s="90"/>
-      <c r="J22" s="64"/>
+      <c r="J22" s="63"/>
     </row>
     <row r="23" spans="1:10" ht="50" x14ac:dyDescent="0.25">
       <c r="A23" s="90"/>
       <c r="B23" s="90"/>
       <c r="C23" s="90"/>
       <c r="D23" s="52" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E23" s="90"/>
       <c r="F23" s="90"/>
       <c r="G23" s="90"/>
       <c r="H23" s="90"/>
       <c r="I23" s="90"/>
-      <c r="J23" s="64"/>
+      <c r="J23" s="63"/>
     </row>
     <row r="24" spans="1:10" ht="25" x14ac:dyDescent="0.25">
       <c r="A24" s="90"/>
       <c r="B24" s="90"/>
       <c r="C24" s="90"/>
       <c r="D24" s="52" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E24" s="90"/>
       <c r="F24" s="90"/>
       <c r="G24" s="90"/>
       <c r="H24" s="90"/>
       <c r="I24" s="90"/>
-      <c r="J24" s="64"/>
+      <c r="J24" s="63"/>
     </row>
     <row r="25" spans="1:10" ht="25" x14ac:dyDescent="0.25">
       <c r="A25" s="90"/>
       <c r="B25" s="90"/>
       <c r="C25" s="90"/>
       <c r="D25" s="52" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E25" s="90"/>
       <c r="F25" s="90"/>
       <c r="G25" s="90"/>
       <c r="H25" s="90"/>
       <c r="I25" s="90"/>
-      <c r="J25" s="64"/>
+      <c r="J25" s="63"/>
     </row>
     <row r="26" spans="1:10" ht="25" x14ac:dyDescent="0.25">
       <c r="A26" s="90"/>
       <c r="B26" s="90"/>
       <c r="C26" s="90"/>
       <c r="D26" s="52" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E26" s="90"/>
       <c r="F26" s="90"/>
       <c r="G26" s="90"/>
       <c r="H26" s="90"/>
       <c r="I26" s="90"/>
-      <c r="J26" s="64"/>
+      <c r="J26" s="63"/>
     </row>
     <row r="27" spans="1:10" ht="25" x14ac:dyDescent="0.25">
       <c r="A27" s="108"/>
       <c r="B27" s="108"/>
       <c r="C27" s="108"/>
       <c r="D27" s="52" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E27" s="108"/>
       <c r="F27" s="108"/>
       <c r="G27" s="108"/>
       <c r="H27" s="108"/>
       <c r="I27" s="108"/>
-      <c r="J27" s="64"/>
+      <c r="J27" s="63"/>
     </row>
     <row r="28" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="H14:H20"/>
     <mergeCell ref="I14:I20"/>
     <mergeCell ref="A21:A27"/>
@@ -14127,19 +14323,6 @@
     <mergeCell ref="E14:E20"/>
     <mergeCell ref="F14:F20"/>
     <mergeCell ref="G14:G20"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="B8" xr:uid="{00000000-0002-0000-0700-000000000000}">
@@ -14199,8 +14382,8 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="75" t="s">
-        <v>253</v>
+      <c r="C2" s="74" t="s">
+        <v>250</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>5</v>
@@ -14279,7 +14462,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>12</v>
@@ -14292,7 +14475,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -14316,305 +14499,295 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="68" t="s">
+      <c r="G10" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="68" t="s">
+      <c r="I10" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="68" t="s">
+      <c r="J10" s="67" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="100" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" s="100" t="s">
+        <v>309</v>
+      </c>
+      <c r="C11" s="100" t="s">
+        <v>310</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="102" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" s="100" t="s">
+        <v>321</v>
+      </c>
+      <c r="G11" s="100" t="s">
+        <v>322</v>
+      </c>
+      <c r="H11" s="100" t="s">
+        <v>323</v>
+      </c>
+      <c r="I11" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J11" s="76"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="92"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="77" t="s">
+        <v>317</v>
+      </c>
+      <c r="E12" s="103"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="77"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="92"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="77" t="s">
+        <v>318</v>
+      </c>
+      <c r="E13" s="103"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="77"/>
+    </row>
+    <row r="14" spans="1:10" s="65" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="92"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="77" t="s">
+        <v>319</v>
+      </c>
+      <c r="E14" s="103"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="77"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="101"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="77" t="s">
+        <v>320</v>
+      </c>
+      <c r="E15" s="104"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="77"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="100" t="s">
         <v>311</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B16" s="100" t="s">
         <v>312</v>
       </c>
-      <c r="C11" s="103" t="s">
+      <c r="C16" s="100" t="s">
         <v>313</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D16" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="105" t="s">
+      <c r="E16" s="102" t="s">
+        <v>327</v>
+      </c>
+      <c r="F16" s="100" t="s">
+        <v>322</v>
+      </c>
+      <c r="G16" s="100" t="s">
+        <v>322</v>
+      </c>
+      <c r="H16" s="100" t="s">
+        <v>322</v>
+      </c>
+      <c r="I16" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J16" s="77"/>
+    </row>
+    <row r="17" spans="1:10" s="65" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="92"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="77" t="s">
+        <v>317</v>
+      </c>
+      <c r="E17" s="103"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="77"/>
+    </row>
+    <row r="18" spans="1:10" s="65" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="92"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="77" t="s">
+        <v>324</v>
+      </c>
+      <c r="E18" s="103"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="77"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="92"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="E19" s="103"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="77"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="77" t="s">
+        <v>320</v>
+      </c>
+      <c r="E20" s="104"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="77"/>
+    </row>
+    <row r="21" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="100" t="s">
+        <v>314</v>
+      </c>
+      <c r="B21" s="100" t="s">
+        <v>315</v>
+      </c>
+      <c r="C21" s="100" t="s">
+        <v>316</v>
+      </c>
+      <c r="D21" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="102" t="s">
+        <v>327</v>
+      </c>
+      <c r="F21" s="100" t="s">
+        <v>330</v>
+      </c>
+      <c r="G21" s="100" t="s">
+        <v>330</v>
+      </c>
+      <c r="H21" s="100" t="s">
+        <v>330</v>
+      </c>
+      <c r="I21" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J21" s="77"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="77" t="s">
+        <v>317</v>
+      </c>
+      <c r="E22" s="103"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="77"/>
+    </row>
+    <row r="23" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="92"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="E23" s="103"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="77"/>
+    </row>
+    <row r="24" spans="1:10" s="65" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="92"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="77" t="s">
         <v>329</v>
       </c>
-      <c r="F11" s="103" t="s">
-        <v>324</v>
-      </c>
-      <c r="G11" s="103" t="s">
-        <v>325</v>
-      </c>
-      <c r="H11" s="103" t="s">
-        <v>326</v>
-      </c>
-      <c r="I11" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="J11" s="77"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="99"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="78" t="s">
-        <v>320</v>
-      </c>
-      <c r="E12" s="106"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="78"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="99"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="78" t="s">
-        <v>321</v>
-      </c>
-      <c r="E13" s="106"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="78"/>
-    </row>
-    <row r="14" spans="1:10" s="66" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="99"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="78" t="s">
-        <v>322</v>
-      </c>
-      <c r="E14" s="106"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="78"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="104"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="78" t="s">
-        <v>323</v>
-      </c>
-      <c r="E15" s="107"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="78"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="103" t="s">
-        <v>314</v>
-      </c>
-      <c r="B16" s="103" t="s">
-        <v>315</v>
-      </c>
-      <c r="C16" s="103" t="s">
-        <v>316</v>
-      </c>
-      <c r="D16" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="105" t="s">
-        <v>330</v>
-      </c>
-      <c r="F16" s="103" t="s">
-        <v>325</v>
-      </c>
-      <c r="G16" s="103" t="s">
-        <v>325</v>
-      </c>
-      <c r="H16" s="103" t="s">
-        <v>325</v>
-      </c>
-      <c r="I16" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="J16" s="78"/>
-    </row>
-    <row r="17" spans="1:10" s="66" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="99"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="78" t="s">
-        <v>320</v>
-      </c>
-      <c r="E17" s="106"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="78"/>
-    </row>
-    <row r="18" spans="1:10" s="66" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="99"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="78" t="s">
-        <v>327</v>
-      </c>
-      <c r="E18" s="106"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="78"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="99"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="78" t="s">
-        <v>328</v>
-      </c>
-      <c r="E19" s="106"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="78"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="78" t="s">
-        <v>323</v>
-      </c>
-      <c r="E20" s="107"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="78"/>
-    </row>
-    <row r="21" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="103" t="s">
-        <v>317</v>
-      </c>
-      <c r="B21" s="103" t="s">
-        <v>318</v>
-      </c>
-      <c r="C21" s="103" t="s">
-        <v>319</v>
-      </c>
-      <c r="D21" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="105" t="s">
-        <v>330</v>
-      </c>
-      <c r="F21" s="103" t="s">
-        <v>333</v>
-      </c>
-      <c r="G21" s="103" t="s">
-        <v>333</v>
-      </c>
-      <c r="H21" s="103" t="s">
-        <v>333</v>
-      </c>
-      <c r="I21" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="J21" s="78"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="99"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="78" t="s">
-        <v>320</v>
-      </c>
-      <c r="E22" s="106"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="78"/>
-    </row>
-    <row r="23" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="99"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="78" t="s">
-        <v>331</v>
-      </c>
-      <c r="E23" s="106"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="78"/>
-    </row>
-    <row r="24" spans="1:10" s="66" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="99"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="78" t="s">
-        <v>332</v>
-      </c>
-      <c r="E24" s="106"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="78"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="77"/>
     </row>
     <row r="25" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="104"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="78"/>
+      <c r="A25" s="101"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="H11:H15"/>
-    <mergeCell ref="I11:I15"/>
     <mergeCell ref="G16:G20"/>
     <mergeCell ref="H16:H20"/>
     <mergeCell ref="I16:I20"/>
@@ -14631,6 +14804,16 @@
     <mergeCell ref="C16:C20"/>
     <mergeCell ref="E16:E20"/>
     <mergeCell ref="F16:F20"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="H11:H15"/>
+    <mergeCell ref="I11:I15"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="B7" xr:uid="{2C310962-FDA1-4AE4-A1AF-C273B67CA94E}">
